--- a/LifoStation.xlsx
+++ b/LifoStation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/LifoStation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="1100" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="22640" yWindow="460" windowWidth="15760" windowHeight="19720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>IsLogined</t>
   </si>
@@ -82,6 +82,72 @@
   </si>
   <si>
     <t>Nurse/Agent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTPServerIP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTPServerPort</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MQTTPort</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内网IP地址</t>
+    <rPh sb="0" eb="1">
+      <t>nwi'wang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>di'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内网端口号</t>
+    <rPh sb="0" eb="1">
+      <t>nei'wang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>duan'kou'hao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订阅端口号</t>
+    <rPh sb="0" eb="1">
+      <t>ding'yue</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>duan'kou'hao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持设备类型code和name</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>she'bei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lei'xing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>he</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MachineTypeDic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSDictionary</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -170,8 +236,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:D4" totalsRowShown="0">
-  <autoFilter ref="A2:D4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:D8" totalsRowShown="0">
+  <autoFilter ref="A2:D8"/>
   <tableColumns count="4">
     <tableColumn id="1" name="function"/>
     <tableColumn id="2" name="key" dataDxfId="0"/>
@@ -445,16 +511,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -502,6 +569,50 @@
       </c>
       <c r="D4" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/LifoStation.xlsx
+++ b/LifoStation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="22640" yWindow="460" windowWidth="15760" windowHeight="19720" tabRatio="500"/>
+    <workbookView xWindow="21260" yWindow="460" windowWidth="17140" windowHeight="19720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>IsLogined</t>
   </si>
@@ -85,10 +85,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>HTTPServerIP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>HTTPServerPort</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -143,11 +139,53 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>NSDictionary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警提示开关</t>
+    <rPh sb="0" eb="1">
+      <t>bao'jing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ti'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>k'kai'guan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警声音开关</t>
+    <rPh sb="0" eb="1">
+      <t>bao'jing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sheng'yin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>kai'guan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>MachineTypeDic</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NSDictionary</t>
+    <t>IsAlertSwitchOn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsSoundSwitchOn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTPServerIP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default:YES</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -236,8 +274,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:D8" totalsRowShown="0">
-  <autoFilter ref="A2:D8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:D10" totalsRowShown="0">
+  <autoFilter ref="A2:D10"/>
   <tableColumns count="4">
     <tableColumn id="1" name="function"/>
     <tableColumn id="2" name="key" dataDxfId="0"/>
@@ -511,16 +549,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="180" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
@@ -573,10 +611,10 @@
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -584,10 +622,10 @@
     </row>
     <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -595,10 +633,10 @@
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -606,13 +644,41 @@
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
